--- a/Bladderproject/Bladder.xlsx
+++ b/Bladderproject/Bladder.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shianga/Desktop/Chaudhuri/Bladder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irffanalahi/Research/Research_code/Bladderproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FA4235-7D95-7241-8F9E-18A149C12242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1058D59F-0DBF-0A4F-AAFF-E98A9E254ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16440" xr2:uid="{0184F159-22A3-2149-B0BE-012014DDF48B}"/>
   </bookViews>
@@ -370,18 +370,19 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -407,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -444,13 +445,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -471,6 +472,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,7 +807,7 @@
   <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -823,7 +825,7 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
